--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>34.5793427830215</v>
+        <v>9.249291999999999</v>
       </c>
       <c r="H2">
-        <v>34.5793427830215</v>
+        <v>27.747876</v>
       </c>
       <c r="I2">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="J2">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N2">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O2">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P2">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q2">
-        <v>49.32689905706012</v>
+        <v>21.94910329183866</v>
       </c>
       <c r="R2">
-        <v>49.32689905706012</v>
+        <v>197.541929626548</v>
       </c>
       <c r="S2">
-        <v>0.01314440170859599</v>
+        <v>0.004709631416056785</v>
       </c>
       <c r="T2">
-        <v>0.01314440170859599</v>
+        <v>0.004709631416056783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>34.5793427830215</v>
+        <v>9.249291999999999</v>
       </c>
       <c r="H3">
-        <v>34.5793427830215</v>
+        <v>27.747876</v>
       </c>
       <c r="I3">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="J3">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N3">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O3">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P3">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q3">
-        <v>1490.930464875078</v>
+        <v>400.1607832995066</v>
       </c>
       <c r="R3">
-        <v>1490.930464875078</v>
+        <v>3601.44704969556</v>
       </c>
       <c r="S3">
-        <v>0.3972961877703282</v>
+        <v>0.08586272393196137</v>
       </c>
       <c r="T3">
-        <v>0.3972961877703282</v>
+        <v>0.08586272393196134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>34.5793427830215</v>
+        <v>9.249291999999999</v>
       </c>
       <c r="H4">
-        <v>34.5793427830215</v>
+        <v>27.747876</v>
       </c>
       <c r="I4">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="J4">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N4">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O4">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P4">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q4">
-        <v>14.50852480236341</v>
+        <v>4.314131852073332</v>
       </c>
       <c r="R4">
-        <v>14.50852480236341</v>
+        <v>38.82718666865999</v>
       </c>
       <c r="S4">
-        <v>0.003866163935843385</v>
+        <v>0.0009256856935513461</v>
       </c>
       <c r="T4">
-        <v>0.003866163935843385</v>
+        <v>0.0009256856935513459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>34.5793427830215</v>
+        <v>9.249291999999999</v>
       </c>
       <c r="H5">
-        <v>34.5793427830215</v>
+        <v>27.747876</v>
       </c>
       <c r="I5">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="J5">
-        <v>0.5817592430335849</v>
+        <v>0.1285586120341026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N5">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O5">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P5">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q5">
-        <v>628.3977190745104</v>
+        <v>172.7197372593333</v>
       </c>
       <c r="R5">
-        <v>628.3977190745104</v>
+        <v>1554.477635334</v>
       </c>
       <c r="S5">
-        <v>0.1674524896188175</v>
+        <v>0.03706057099253315</v>
       </c>
       <c r="T5">
-        <v>0.1674524896188175</v>
+        <v>0.03706057099253314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.64292629977725</v>
+        <v>35.42317866666667</v>
       </c>
       <c r="H6">
-        <v>3.64292629977725</v>
+        <v>106.269536</v>
       </c>
       <c r="I6">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="J6">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N6">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O6">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P6">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q6">
-        <v>5.196578170642735</v>
+        <v>84.06124571263643</v>
       </c>
       <c r="R6">
-        <v>5.196578170642735</v>
+        <v>756.551211413728</v>
       </c>
       <c r="S6">
-        <v>0.001384759883365755</v>
+        <v>0.01803706868646009</v>
       </c>
       <c r="T6">
-        <v>0.001384759883365755</v>
+        <v>0.01803706868646009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.64292629977725</v>
+        <v>35.42317866666667</v>
       </c>
       <c r="H7">
-        <v>3.64292629977725</v>
+        <v>106.269536</v>
       </c>
       <c r="I7">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="J7">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N7">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O7">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P7">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q7">
-        <v>157.0692027235214</v>
+        <v>1532.546158366684</v>
       </c>
       <c r="R7">
-        <v>157.0692027235214</v>
+        <v>13792.91542530016</v>
       </c>
       <c r="S7">
-        <v>0.04185506764288201</v>
+        <v>0.3288392896070903</v>
       </c>
       <c r="T7">
-        <v>0.04185506764288201</v>
+        <v>0.3288392896070902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.64292629977725</v>
+        <v>35.42317866666667</v>
       </c>
       <c r="H8">
-        <v>3.64292629977725</v>
+        <v>106.269536</v>
       </c>
       <c r="I8">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="J8">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N8">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O8">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P8">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q8">
-        <v>1.52846995690882</v>
+        <v>16.52237418686222</v>
       </c>
       <c r="R8">
-        <v>1.52846995690882</v>
+        <v>148.70136768176</v>
       </c>
       <c r="S8">
-        <v>0.0004072995363014685</v>
+        <v>0.003545215105312556</v>
       </c>
       <c r="T8">
-        <v>0.0004072995363014685</v>
+        <v>0.003545215105312556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.64292629977725</v>
+        <v>35.42317866666667</v>
       </c>
       <c r="H9">
-        <v>3.64292629977725</v>
+        <v>106.269536</v>
       </c>
       <c r="I9">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="J9">
-        <v>0.06128821070671513</v>
+        <v>0.492357110492641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N9">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O9">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P9">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q9">
-        <v>66.20156409278471</v>
+        <v>661.4865345582223</v>
       </c>
       <c r="R9">
-        <v>66.20156409278471</v>
+        <v>5953.378811024</v>
       </c>
       <c r="S9">
-        <v>0.01764108364416591</v>
+        <v>0.1419355370937782</v>
       </c>
       <c r="T9">
-        <v>0.01764108364416591</v>
+        <v>0.1419355370937782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.2169975848135</v>
+        <v>3.703826</v>
       </c>
       <c r="H10">
-        <v>21.2169975848135</v>
+        <v>11.111478</v>
       </c>
       <c r="I10">
-        <v>0.3569525462596999</v>
+        <v>0.0514805597850973</v>
       </c>
       <c r="J10">
-        <v>0.3569525462596999</v>
+        <v>0.05148055978509729</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N10">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O10">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P10">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q10">
-        <v>30.26571976011789</v>
+        <v>8.789392685299333</v>
       </c>
       <c r="R10">
-        <v>30.26571976011789</v>
+        <v>79.104534167694</v>
       </c>
       <c r="S10">
-        <v>0.008065067663519394</v>
+        <v>0.001885944923050103</v>
       </c>
       <c r="T10">
-        <v>0.008065067663519394</v>
+        <v>0.001885944923050103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.2169975848135</v>
+        <v>3.703826</v>
       </c>
       <c r="H11">
-        <v>21.2169975848135</v>
+        <v>11.111478</v>
       </c>
       <c r="I11">
-        <v>0.3569525462596999</v>
+        <v>0.0514805597850973</v>
       </c>
       <c r="J11">
-        <v>0.3569525462596999</v>
+        <v>0.05148055978509729</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N11">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O11">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P11">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q11">
-        <v>914.7966828308626</v>
+        <v>160.2420934883533</v>
       </c>
       <c r="R11">
-        <v>914.7966828308626</v>
+        <v>1442.17884139518</v>
       </c>
       <c r="S11">
-        <v>0.2437707480235143</v>
+        <v>0.0343832359633603</v>
       </c>
       <c r="T11">
-        <v>0.2437707480235143</v>
+        <v>0.0343832359633603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.2169975848135</v>
+        <v>3.703826</v>
       </c>
       <c r="H12">
-        <v>21.2169975848135</v>
+        <v>11.111478</v>
       </c>
       <c r="I12">
-        <v>0.3569525462596999</v>
+        <v>0.0514805597850973</v>
       </c>
       <c r="J12">
-        <v>0.3569525462596999</v>
+        <v>0.05148055978509729</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N12">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O12">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P12">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q12">
-        <v>8.902058596732351</v>
+        <v>1.727569388136666</v>
       </c>
       <c r="R12">
-        <v>8.902058596732351</v>
+        <v>15.54812449323</v>
       </c>
       <c r="S12">
-        <v>0.002372179003053759</v>
+        <v>0.0003706855335093224</v>
       </c>
       <c r="T12">
-        <v>0.002372179003053759</v>
+        <v>0.0003706855335093224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.703826</v>
+      </c>
+      <c r="H13">
+        <v>11.111478</v>
+      </c>
+      <c r="I13">
+        <v>0.0514805597850973</v>
+      </c>
+      <c r="J13">
+        <v>0.05148055978509729</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.67383333333333</v>
+      </c>
+      <c r="N13">
+        <v>56.0215</v>
+      </c>
+      <c r="O13">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="P13">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="Q13">
+        <v>69.16462941966667</v>
+      </c>
+      <c r="R13">
+        <v>622.481664777</v>
+      </c>
+      <c r="S13">
+        <v>0.01484069336517758</v>
+      </c>
+      <c r="T13">
+        <v>0.01484069336517758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>23.569813</v>
+      </c>
+      <c r="H14">
+        <v>70.709439</v>
+      </c>
+      <c r="I14">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="J14">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.373057666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.119173</v>
+      </c>
+      <c r="O14">
+        <v>0.03663411841135517</v>
+      </c>
+      <c r="P14">
+        <v>0.03663411841135517</v>
+      </c>
+      <c r="Q14">
+        <v>55.93252544154966</v>
+      </c>
+      <c r="R14">
+        <v>503.392728973947</v>
+      </c>
+      <c r="S14">
+        <v>0.01200147338578819</v>
+      </c>
+      <c r="T14">
+        <v>0.01200147338578819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>23.569813</v>
+      </c>
+      <c r="H15">
+        <v>70.709439</v>
+      </c>
+      <c r="I15">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="J15">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>43.26393666666667</v>
+      </c>
+      <c r="N15">
+        <v>129.79181</v>
+      </c>
+      <c r="O15">
+        <v>0.6678877639810287</v>
+      </c>
+      <c r="P15">
+        <v>0.6678877639810287</v>
+      </c>
+      <c r="Q15">
+        <v>1019.722896877177</v>
+      </c>
+      <c r="R15">
+        <v>9177.50607189459</v>
+      </c>
+      <c r="S15">
+        <v>0.2188025144786168</v>
+      </c>
+      <c r="T15">
+        <v>0.2188025144786168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>21.2169975848135</v>
-      </c>
-      <c r="H13">
-        <v>21.2169975848135</v>
-      </c>
-      <c r="I13">
-        <v>0.3569525462596999</v>
-      </c>
-      <c r="J13">
-        <v>0.3569525462596999</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>18.1726333845493</v>
-      </c>
-      <c r="N13">
-        <v>18.1726333845493</v>
-      </c>
-      <c r="O13">
-        <v>0.2878381248325958</v>
-      </c>
-      <c r="P13">
-        <v>0.2878381248325958</v>
-      </c>
-      <c r="Q13">
-        <v>385.5687186296837</v>
-      </c>
-      <c r="R13">
-        <v>385.5687186296837</v>
-      </c>
-      <c r="S13">
-        <v>0.1027445515696124</v>
-      </c>
-      <c r="T13">
-        <v>0.1027445515696124</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>23.569813</v>
+      </c>
+      <c r="H16">
+        <v>70.709439</v>
+      </c>
+      <c r="I16">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="J16">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4664283333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.399285</v>
+      </c>
+      <c r="O16">
+        <v>0.007200495391983466</v>
+      </c>
+      <c r="P16">
+        <v>0.007200495391983466</v>
+      </c>
+      <c r="Q16">
+        <v>10.99362859456833</v>
+      </c>
+      <c r="R16">
+        <v>98.942657351115</v>
+      </c>
+      <c r="S16">
+        <v>0.002358909059610242</v>
+      </c>
+      <c r="T16">
+        <v>0.002358909059610242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>23.569813</v>
+      </c>
+      <c r="H17">
+        <v>70.709439</v>
+      </c>
+      <c r="I17">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="J17">
+        <v>0.3276037176881591</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.67383333333333</v>
+      </c>
+      <c r="N17">
+        <v>56.0215</v>
+      </c>
+      <c r="O17">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="P17">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="Q17">
+        <v>440.1387596598333</v>
+      </c>
+      <c r="R17">
+        <v>3961.248836938501</v>
+      </c>
+      <c r="S17">
+        <v>0.09444082076414397</v>
+      </c>
+      <c r="T17">
+        <v>0.09444082076414397</v>
       </c>
     </row>
   </sheetData>
